--- a/Informe de competencia FICs 31072023 Todos los fondos.xlsx
+++ b/Informe de competencia FICs 31072023 Todos los fondos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia.sharepoint.com/teams/GerenciaDesarrolloNegocio/Documentos compartidos/INFORMACION GENERAL ASSET MANAGEMENT/FONDOS DE INVERSION/INFORME DE COMPETENCIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/juliavar_bancolombia_com_co/Documents/Workspace/FICsAppStreamLit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{9E724BD5-D1C2-4035-9335-9B5D63FBAD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99FD7FB4-56DF-443A-A253-760B8912C606}"/>
@@ -38,8 +38,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1778,7 +1776,34 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1837,7 +1862,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1852,34 +1877,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -2492,14 +2490,14 @@
     <tableColumn id="44" xr3:uid="{77E3E7F7-9340-4AD0-A586-15D6F56697D3}" uniqueName="44" name="V.Ytd" queryTableFieldId="44" dataDxfId="10" dataCellStyle="Porcentaje"/>
     <tableColumn id="45" xr3:uid="{6DF4FDCB-E16A-448D-A2BA-E72165A09DF2}" uniqueName="45" name="V. 1Y" queryTableFieldId="45" dataDxfId="9" dataCellStyle="Porcentaje"/>
     <tableColumn id="46" xr3:uid="{AE13DE15-9871-48AB-88C1-9BEFAB2DE2B3}" uniqueName="46" name="V. 3Y" queryTableFieldId="46" dataDxfId="8" dataCellStyle="Porcentaje"/>
-    <tableColumn id="47" xr3:uid="{E7489BDD-0BA9-4A58-9977-5D5DCD631DED}" uniqueName="47" name="V. 5Y" queryTableFieldId="47" dataDxfId="4" dataCellStyle="Porcentaje"/>
-    <tableColumn id="48" xr3:uid="{C22E554A-181C-4F9C-B885-4693D64DD8A9}" uniqueName="48" name="Sharpe.1Y" queryTableFieldId="48" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="49" xr3:uid="{A2B15656-DA09-4800-A4FD-BF5B29F2BB5E}" uniqueName="49" name="Sharpe.3Y" queryTableFieldId="49" dataDxfId="2" dataCellStyle="Porcentaje"/>
-    <tableColumn id="50" xr3:uid="{BB37F739-607F-4544-9855-6703CB56BFCB}" uniqueName="50" name="Sharpe.5Y" queryTableFieldId="50" dataDxfId="0" dataCellStyle="Porcentaje"/>
-    <tableColumn id="51" xr3:uid="{4F6BB1FD-2E5C-4A15-99BB-3D655AF5ECEF}" uniqueName="51" name="RN&lt;0 semana" queryTableFieldId="51" dataDxfId="1"/>
-    <tableColumn id="52" xr3:uid="{9FC65F25-929B-4630-B4F9-0444EE131F97}" uniqueName="52" name="RN&lt;0 mes" queryTableFieldId="52" dataDxfId="7"/>
-    <tableColumn id="53" xr3:uid="{02E35902-A4B9-4220-BC04-5ECB55CE7DE1}" uniqueName="53" name="RN&lt;0 YtD" queryTableFieldId="53" dataDxfId="6"/>
-    <tableColumn id="54" xr3:uid="{C9B0CE1A-FC98-40EC-B9FD-B6CF272EB434}" uniqueName="54" name="RN&lt;0 1Y" queryTableFieldId="54" dataDxfId="5"/>
+    <tableColumn id="47" xr3:uid="{E7489BDD-0BA9-4A58-9977-5D5DCD631DED}" uniqueName="47" name="V. 5Y" queryTableFieldId="47" dataDxfId="7" dataCellStyle="Porcentaje"/>
+    <tableColumn id="48" xr3:uid="{C22E554A-181C-4F9C-B885-4693D64DD8A9}" uniqueName="48" name="Sharpe.1Y" queryTableFieldId="48" dataDxfId="6" dataCellStyle="Porcentaje"/>
+    <tableColumn id="49" xr3:uid="{A2B15656-DA09-4800-A4FD-BF5B29F2BB5E}" uniqueName="49" name="Sharpe.3Y" queryTableFieldId="49" dataDxfId="5" dataCellStyle="Porcentaje"/>
+    <tableColumn id="50" xr3:uid="{BB37F739-607F-4544-9855-6703CB56BFCB}" uniqueName="50" name="Sharpe.5Y" queryTableFieldId="50" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="51" xr3:uid="{4F6BB1FD-2E5C-4A15-99BB-3D655AF5ECEF}" uniqueName="51" name="RN&lt;0 semana" queryTableFieldId="51" dataDxfId="3"/>
+    <tableColumn id="52" xr3:uid="{9FC65F25-929B-4630-B4F9-0444EE131F97}" uniqueName="52" name="RN&lt;0 mes" queryTableFieldId="52" dataDxfId="2"/>
+    <tableColumn id="53" xr3:uid="{02E35902-A4B9-4220-BC04-5ECB55CE7DE1}" uniqueName="53" name="RN&lt;0 YtD" queryTableFieldId="53" dataDxfId="1"/>
+    <tableColumn id="54" xr3:uid="{C9B0CE1A-FC98-40EC-B9FD-B6CF272EB434}" uniqueName="54" name="RN&lt;0 1Y" queryTableFieldId="54" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2805,8 +2803,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:AQ1657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -80031,28 +80029,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="001229fa-a558-4b16-a3f3-083312a17b67">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f8827834-cbdc-47d2-8c72-d55dcfd1ca66" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F94F728794D1A449A6966790EA0F5318" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="02a2a748d671d627bb49877777e7ba9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="001229fa-a558-4b16-a3f3-083312a17b67" xmlns:ns3="f8827834-cbdc-47d2-8c72-d55dcfd1ca66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="747c99f5b41caf76a5325d6767a91be2" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -80318,6 +80294,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="001229fa-a558-4b16-a3f3-083312a17b67">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f8827834-cbdc-47d2-8c72-d55dcfd1ca66" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6129B7F3-A5E7-46B3-8BF3-4C8F486776A8}">
   <ds:schemaRefs>
@@ -80327,26 +80325,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28501BC9-C800-499A-A4E9-E8CC7856A6C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="001229fa-a558-4b16-a3f3-083312a17b67"/>
-    <ds:schemaRef ds:uri="f8827834-cbdc-47d2-8c72-d55dcfd1ca66"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F92121E5-93CA-4DC9-AD33-3BF7E87DD6D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BC7674E-387D-4DC9-990D-9D3F23BE0D6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -80364,4 +80342,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F92121E5-93CA-4DC9-AD33-3BF7E87DD6D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28501BC9-C800-499A-A4E9-E8CC7856A6C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="001229fa-a558-4b16-a3f3-083312a17b67"/>
+    <ds:schemaRef ds:uri="f8827834-cbdc-47d2-8c72-d55dcfd1ca66"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>